--- a/accessory.xlsx
+++ b/accessory.xlsx
@@ -19,7 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+  <x:si>
+    <x:t>https://search.pstatic.net/common/?src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyNDA0MTJfMTc2%2FMDAxNzEyOTMwMjc1MDQw.x3tho5YpEAZE-wlARF9msRui8I843u6WW5MT3BFDEa8g.1-T-kdn3Af_6I1lmdjrm0QPfGoDR3PbhyC6LlaAwZqQg.PNG%2F%25BD%25BA%25C5%25A9%25B8%25B0%25BC%25A6_2024-04-12_%25BF%25C0%25C8%25C4_10.50.31.png&amp;type=sc960_832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://search.pstatic.net/common/?src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyMjAxMDNfMjkz%2FMDAxNjQxMTg0NjU1ODI1.z4mJJWp9h34uznpHTKTvwOubBCkSvjFN95D7ZJLs1Bwg.hV6FSanUMeEH9L1__pjx6f5SCKAb3r9LlBuLYuxUSDUg.PNG.jyj53595%2F2030%25B4%25EB_%25B3%25B2%25C0%25DA_%25BE%25C8%25B0%25E6_%25C3%25DF%25C3%25B5_%25C1%25A8%25C6%25B2%25B8%25F3%25BD%25BA%25C5%25CD_%25C4%25ED%25BA%25B8_%25289%2529.png&amp;type=sc960_832</x:t>
+  </x:si>
   <x:si>
     <x:t>Gender</x:t>
   </x:si>
@@ -36,7 +42,25 @@
     <x:t>Url</x:t>
   </x:si>
   <x:si>
+    <x:t>https://search.pstatic.net/common/?src=http%3A%2F%2Fshop1.phinf.naver.net%2F20180815_38%2Fbyhomme_1534328654999UpmMR_JPEG%2F20578478134474957_1065924654.jpg&amp;type=sc960_832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://search.pstatic.net/common/?src=http%3A%2F%2Fshop1.phinf.naver.net%2F20230117_46%2F1673929059079ejhWO_JPEG%2F75064892869390415_1151995749.jpg&amp;type=sc960_832</x:t>
+  </x:si>
+  <x:si>
     <x:t>Face</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://search.pstatic.net/common/?src=http%3A%2F%2Fshop1.phinf.naver.net%2F20201231_187%2F1609394010754VfcVN_JPEG%2F10529845545428555_839109882.jpg&amp;type=sc960_832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://search.pstatic.net/common/?src=http%3A%2F%2Fblogfiles.naver.net%2FMjAxOTEwMjlfMjA2%2FMDAxNTcyMzI2MDgwOTk0.nvdmDol-HmwJJO5z1UlX7xMx-J_aRW2nN83-kBEXRvsg.dWM8_F8Bh4Wmv42oduwtvdwBFrhloAN_dQeTierMp-Ig.JPEG.spettro_official%2FMOND_GD_%25281%2529.jpg&amp;type=sc960_832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://search.pstatic.net/common/?src=http%3A%2F%2Fblogfiles.naver.net%2FMjAxNzEyMDlfMTc5%2FMDAxNTEyNzk3NDcyOTUy.7vRQm3mlHUY96iGqYmRRj_4KFe_JgT_bl0bB-IJgpe4g.DHBmYqCEuBqBig9fJj_CmgxmkYcq2oWyptjp6s5Qk6Mg.JPEG.heaven7222%2FKakaoTalk_20171209_135148481.jpg&amp;type=sc960_832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://search.pstatic.net/common/?src=http%3A%2F%2Fshop1.phinf.naver.net%2F20190124_274%2Fchiruchiru77_1548338152025CkUuN_JPEG%2F31057010844777556_1640747523.jpg&amp;type=sc960_832</x:t>
   </x:si>
   <x:si>
     <x:t>square</x:t>
@@ -847,77 +871,101 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B1" t="s">
+      <x:c r="B5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" t="s">
-        <x:v>4</x:v>
-      </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>2</x:v>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>2</x:v>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" t="s">
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>1</x:v>
+      <x:c r="C9" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
